--- a/Team-Data/2007-08/12-2-2007-08.xlsx
+++ b/Team-Data/2007-08/12-2-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -774,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
         <v>13</v>
@@ -792,10 +859,10 @@
         <v>29</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV2" t="n">
         <v>20</v>
@@ -804,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
         <v>27</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.875</v>
+        <v>0.867</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>75.90000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.387</v>
+        <v>0.399</v>
       </c>
       <c r="O3" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="P3" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.755</v>
       </c>
       <c r="R3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S3" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.3</v>
@@ -914,19 +981,19 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA3" t="n">
         <v>23.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,19 +1005,19 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -971,13 +1038,13 @@
         <v>27</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
@@ -986,19 +1053,19 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1129,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
@@ -1162,10 +1229,10 @@
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1174,16 +1241,16 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
         <v>5</v>
@@ -1347,16 +1414,16 @@
         <v>23</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
         <v>18</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -1394,118 +1461,118 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3</v>
+        <v>36.9</v>
       </c>
       <c r="J6" t="n">
-        <v>82.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.444</v>
       </c>
       <c r="L6" t="n">
         <v>7.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.698</v>
+        <v>0.705</v>
       </c>
       <c r="R6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
         <v>5.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.6</v>
+        <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
       </c>
       <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
         <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
@@ -1517,34 +1584,34 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>14</v>
       </c>
       <c r="AY6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>18</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>26</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC6" t="n">
         <v>19</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1678,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>16</v>
@@ -1699,7 +1766,7 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
@@ -1708,19 +1775,19 @@
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7" t="n">
         <v>30</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -1758,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.611</v>
+        <v>0.588</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O8" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="T8" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="W8" t="n">
         <v>10.2</v>
       </c>
       <c r="X8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y8" t="n">
         <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="AA8" t="n">
         <v>24.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.6</v>
+        <v>106.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1851,22 +1918,22 @@
         <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU8" t="n">
         <v>6</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1896,22 +1963,22 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="J9" t="n">
         <v>80.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.476</v>
+        <v>0.471</v>
       </c>
       <c r="L9" t="n">
         <v>5.6</v>
       </c>
       <c r="M9" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S9" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V9" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y9" t="n">
         <v>3.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
         <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>5</v>
@@ -2036,25 +2103,25 @@
         <v>6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>21</v>
@@ -2066,31 +2133,31 @@
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV9" t="n">
         <v>3</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>2</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>89.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="M10" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="O10" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R10" t="n">
         <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="AB10" t="n">
         <v>108.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
         <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,52 +2297,52 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AU10" t="n">
         <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -2382,40 +2449,40 @@
         <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG11" t="n">
         <v>14</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2430,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
@@ -2439,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>17</v>
@@ -2451,13 +2518,13 @@
         <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,37 +2571,37 @@
         <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L12" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.337</v>
+        <v>0.332</v>
       </c>
       <c r="O12" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P12" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R12" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T12" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U12" t="n">
         <v>22.4</v>
@@ -2543,40 +2610,40 @@
         <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.6</v>
       </c>
-      <c r="Y12" t="n">
-        <v>5.7</v>
-      </c>
       <c r="Z12" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>10</v>
@@ -2588,13 +2655,13 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2603,31 +2670,31 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>19</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2636,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.429</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
@@ -2686,37 +2753,37 @@
         <v>33.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3</v>
+        <v>79.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="L13" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M13" t="n">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.372</v>
       </c>
       <c r="O13" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P13" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T13" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U13" t="n">
         <v>20.1</v>
@@ -2728,16 +2795,16 @@
         <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y13" t="n">
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="AB13" t="n">
         <v>95.3</v>
@@ -2746,13 +2813,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
@@ -2770,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2791,31 +2858,31 @@
         <v>20</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -2850,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.529</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.2</v>
+        <v>80.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.468</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29.6</v>
+        <v>30.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R14" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V14" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.5</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
         <v>9</v>
       </c>
-      <c r="AE14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2958,13 +3025,13 @@
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
@@ -2973,37 +3040,37 @@
         <v>16</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-1</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3122,16 +3189,16 @@
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3149,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3161,10 +3228,10 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3173,13 +3240,13 @@
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -3214,91 +3281,91 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="J16" t="n">
-        <v>75.8</v>
+        <v>75.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.442</v>
+        <v>0.447</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O16" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="V16" t="n">
         <v>15</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="O16" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.6860000000000001</v>
-      </c>
-      <c r="R16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="V16" t="n">
-        <v>15.2</v>
-      </c>
       <c r="W16" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.1</v>
+        <v>-3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
         <v>28</v>
@@ -3313,19 +3380,19 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3334,10 +3401,10 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3361,13 +3428,13 @@
         <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-4.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -3489,16 +3556,16 @@
         <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
@@ -3507,7 +3574,7 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3531,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX17" t="n">
         <v>5</v>
@@ -3549,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,16 +3738,16 @@
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
       </c>
       <c r="AK18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL18" t="n">
         <v>17</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>16</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
         <v>11</v>
@@ -3713,13 +3780,13 @@
         <v>20</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.471</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="J19" t="n">
-        <v>75.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.418</v>
+        <v>0.415</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
@@ -3790,67 +3857,67 @@
         <v>18.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.307</v>
+        <v>0.309</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.748</v>
+        <v>0.739</v>
       </c>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S19" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>39.9</v>
+        <v>40.3</v>
       </c>
       <c r="U19" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="V19" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="W19" t="n">
         <v>6.6</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>90</v>
+        <v>89.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
         <v>14</v>
       </c>
-      <c r="AG19" t="n">
-        <v>16</v>
-      </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,13 +3929,13 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM19" t="n">
         <v>14</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3877,43 +3944,43 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -4020,40 +4087,40 @@
         <v>3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4071,13 +4138,13 @@
         <v>17</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -4124,121 +4191,121 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0.313</v>
+        <v>0.333</v>
       </c>
       <c r="H21" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>4.9</v>
       </c>
       <c r="M21" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.319</v>
+        <v>0.322</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.697</v>
+        <v>0.702</v>
       </c>
       <c r="R21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S21" t="n">
-        <v>30.3</v>
+        <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="U21" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="V21" t="n">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.6</v>
+        <v>-8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
       </c>
       <c r="AL21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM21" t="n">
         <v>24</v>
       </c>
-      <c r="AM21" t="n">
-        <v>22</v>
-      </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO21" t="n">
         <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="n">
         <v>27</v>
@@ -4247,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4256,10 +4323,10 @@
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,13 +4335,13 @@
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
         <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.789</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,31 +4391,31 @@
         <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79.09999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M22" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O22" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.721</v>
+        <v>0.716</v>
       </c>
       <c r="R22" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S22" t="n">
         <v>35.1</v>
@@ -4357,28 +4424,28 @@
         <v>43.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V22" t="n">
         <v>14.7</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="X22" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
         <v>6.9</v>
@@ -4399,13 +4466,13 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4414,16 +4481,16 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4435,22 +4502,22 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
       </c>
       <c r="AF23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG23" t="n">
         <v>25</v>
       </c>
-      <c r="AG23" t="n">
-        <v>24</v>
-      </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4596,13 +4663,13 @@
         <v>27</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
         <v>18</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19</v>
       </c>
       <c r="AQ23" t="n">
         <v>25</v>
@@ -4611,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
@@ -4626,16 +4693,16 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>14</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.765</v>
+        <v>0.75</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="J24" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.488</v>
+        <v>0.482</v>
       </c>
       <c r="L24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="O24" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="R24" t="n">
         <v>8.6</v>
       </c>
-      <c r="M24" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="O24" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="P24" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="R24" t="n">
-        <v>8.5</v>
-      </c>
       <c r="S24" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>42.3</v>
       </c>
       <c r="U24" t="n">
-        <v>25.8</v>
+        <v>25.1</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>108.4</v>
+        <v>108</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL24" t="n">
         <v>3</v>
@@ -4781,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4790,28 +4857,28 @@
         <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
       </c>
       <c r="AV24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -4852,121 +4919,121 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.294</v>
+        <v>0.313</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="J25" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="L25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M25" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O25" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="P25" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="V25" t="n">
         <v>15.8</v>
       </c>
-      <c r="P25" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="R25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>39</v>
-      </c>
-      <c r="U25" t="n">
-        <v>20</v>
-      </c>
-      <c r="V25" t="n">
-        <v>15.5</v>
-      </c>
       <c r="W25" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="X25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z25" t="n">
         <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>90.5</v>
+        <v>91.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.2</v>
+        <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4975,19 +5042,19 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
         <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>25</v>
@@ -4999,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,13 +5191,13 @@
         <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,19 +5209,19 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
         <v>24</v>
@@ -5169,7 +5236,7 @@
         <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
@@ -5178,16 +5245,16 @@
         <v>24</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.833</v>
+        <v>0.824</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J27" t="n">
-        <v>79.7</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.483</v>
       </c>
       <c r="L27" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.418</v>
+        <v>0.415</v>
       </c>
       <c r="O27" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S27" t="n">
         <v>31.2</v>
       </c>
       <c r="T27" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
         <v>23.1</v>
       </c>
       <c r="V27" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z27" t="n">
         <v>18.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB27" t="n">
         <v>101.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5321,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="AM27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN27" t="n">
         <v>2</v>
@@ -5333,13 +5400,13 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5351,13 +5418,13 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5366,7 +5433,7 @@
         <v>28</v>
       </c>
       <c r="BB27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>2</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.167</v>
+        <v>0.176</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J28" t="n">
         <v>86.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M28" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.351</v>
+        <v>0.358</v>
       </c>
       <c r="O28" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P28" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.762</v>
@@ -5443,40 +5510,40 @@
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="T28" t="n">
-        <v>45</v>
+        <v>44.6</v>
       </c>
       <c r="U28" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="V28" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.1</v>
       </c>
-      <c r="Y28" t="n">
-        <v>5.2</v>
-      </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,10 +5555,10 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>2</v>
@@ -5500,13 +5567,13 @@
         <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5521,34 +5588,34 @@
         <v>14</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AV28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX28" t="n">
         <v>15</v>
       </c>
-      <c r="AX28" t="n">
-        <v>13</v>
-      </c>
       <c r="AY28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA28" t="n">
         <v>19</v>
       </c>
-      <c r="AZ28" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>21</v>
-      </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>15</v>
@@ -5679,13 +5746,13 @@
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5706,16 +5773,16 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5730,7 +5797,7 @@
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF30" t="n">
         <v>5</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
@@ -5870,22 +5937,22 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5900,13 +5967,13 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
         <v>4</v>
@@ -5915,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6052,13 +6119,13 @@
         <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ31" t="n">
         <v>7</v>
@@ -6073,10 +6140,10 @@
         <v>9</v>
       </c>
       <c r="AU31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>16</v>
@@ -6085,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>10</v>
@@ -6094,7 +6161,7 @@
         <v>13</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-2-2007-08</t>
+          <t>2007-12-02</t>
         </is>
       </c>
     </row>
